--- a/gist_validation_results.xlsx
+++ b/gist_validation_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,64 +456,139 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>annual_revenue</t>
+          <t>annual_revenue_meur</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>revenue_per_store_meur</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>it_budget_pct</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>it_budget_meur</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>geographic_region</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>parameter_level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data_sources</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>avg_store_surface_sqm</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>employees</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pos_terminals</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>legacy_ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>baseline_availability</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>employees_per_store</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pos_per_store</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>pos_terminals_total</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>legacy_system_ratio</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_availability_pct</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>baseline_mttr_hours</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>baseline_security_incidents</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>baseline_compliance_score</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_security_incidents_year</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_gdpr_compliance</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_pci_compliance</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_nis2_readiness</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>baseline_patch_lag_days</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>security_spend_pct_it</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>compliance_spend_pct_it</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>generation_date</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>framework_version</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>random_seed</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG-SIM-001</t>
+          <t>GIST-SIM-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,45 +600,96 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>316.1915656874009</v>
+        <v>369.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.591717394933082</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>3132</v>
+        <v>1.15</v>
       </c>
       <c r="G2" t="n">
-        <v>369</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6891665505707183</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nord</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9879780742205108</v>
+        <v>4.23</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sud e Isole</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K2" t="n">
-        <v>7.507196575036572</v>
+        <v>911</v>
       </c>
       <c r="L2" t="n">
-        <v>50</v>
+        <v>880</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7039915906107852</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>117</v>
+        <v>6.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>596</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>99.893</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="W2" t="n">
+        <v>106</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG-SIM-002</t>
+          <t>GIST-SIM-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -572,48 +698,99 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>191.5495794871676</v>
+        <v>226.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.59091248360355</v>
+        <v>3.23</v>
       </c>
       <c r="F3" t="n">
-        <v>1869</v>
+        <v>1.12</v>
       </c>
       <c r="G3" t="n">
-        <v>285</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7049512863264475</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>2.55</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nord</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0.9936328901619026</v>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>6.47612400238414</v>
+        <v>870</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6648328099146296</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>87</v>
+        <v>8.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>564</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>99.892</v>
+      </c>
+      <c r="R3" t="n">
+        <v>24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="W3" t="n">
+        <v>54</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG-SIM-003</t>
+          <t>GIST-SIM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,48 +799,99 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7301137919528</v>
+        <v>255.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.691230995633581</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3807</v>
+        <v>1.11</v>
       </c>
       <c r="G4" t="n">
-        <v>377</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7719880813472642</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>2.85</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Centro</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>0.9914132017072826</v>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>7.970161430640252</v>
+        <v>814</v>
       </c>
       <c r="L4" t="n">
-        <v>64</v>
+        <v>730</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6929890751321496</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>119</v>
+        <v>4.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>349</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="W4" t="n">
+        <v>113</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG-SIM-004</t>
+          <t>GIST-SIM-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -675,45 +903,96 @@
         <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>171.79176870424</v>
+        <v>208.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.720076246869801</v>
+        <v>4.08</v>
       </c>
       <c r="F5" t="n">
-        <v>1144</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>203</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6068777042230437</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sud</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9936450898242064</v>
+        <v>3.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>6.779156350028978</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>33</v>
+        <v>510</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6335906975550785</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>122</v>
+        <v>3.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>198</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>99.869</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="W5" t="n">
+        <v>365</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG-SIM-005</t>
+          <t>GIST-SIM-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -722,48 +1001,99 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>237.8677983303893</v>
+        <v>274.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.969749470782094</v>
+        <v>3.93</v>
       </c>
       <c r="F6" t="n">
-        <v>2539</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
-        <v>281</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7843748470046235</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>4.09</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nord</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0.9899818293142698</v>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>6.416705786463113</v>
+        <v>871</v>
       </c>
       <c r="L6" t="n">
-        <v>41</v>
+        <v>700</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6326660951319326</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>106</v>
+        <v>6.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>431</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>99.89700000000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="W6" t="n">
+        <v>224</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG-SIM-006</t>
+          <t>GIST-SIM-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -772,48 +1102,99 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4937542952554</v>
+        <v>254.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1.90109849037702</v>
+        <v>3.44</v>
       </c>
       <c r="F7" t="n">
-        <v>2020</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>467</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7544489538593315</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>3.79</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nord</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.994061999044992</v>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>8.931280119116199</v>
+        <v>665</v>
       </c>
       <c r="L7" t="n">
-        <v>60</v>
+        <v>740</v>
       </c>
       <c r="M7" t="n">
-        <v>0.658039123838868</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>115</v>
+        <v>5.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>412</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>99.896</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>17</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>152</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG-SIM-007</t>
+          <t>GIST-SIM-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -822,48 +1203,99 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.818054405626</v>
+        <v>560</v>
       </c>
       <c r="E8" t="n">
-        <v>2.224725337069102</v>
+        <v>4.91</v>
       </c>
       <c r="F8" t="n">
-        <v>7466</v>
+        <v>2.35</v>
       </c>
       <c r="G8" t="n">
-        <v>1196</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5337682505327215</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0.990851689426112</v>
+        <v>13.16</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>6.13795294322489</v>
+        <v>1390</v>
       </c>
       <c r="L8" t="n">
-        <v>128</v>
+        <v>1140</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7533118579543976</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>101</v>
+        <v>10.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1161</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="W8" t="n">
+        <v>47</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG-SIM-008</t>
+          <t>GIST-SIM-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -872,48 +1304,99 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="D9" t="n">
-        <v>961.0094774476364</v>
+        <v>918.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2.261366414690997</v>
+        <v>5.97</v>
       </c>
       <c r="F9" t="n">
-        <v>9290</v>
+        <v>2.13</v>
       </c>
       <c r="G9" t="n">
-        <v>982</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4215782853986609</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Nord</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9911624990828172</v>
+        <v>19.54</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sud e Isole</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>6.542491617339421</v>
+        <v>1265</v>
       </c>
       <c r="L9" t="n">
-        <v>127</v>
+        <v>1540</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7605370835651041</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>101</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1429</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="W9" t="n">
+        <v>54</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG-SIM-009</t>
+          <t>GIST-SIM-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -922,48 +1405,99 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>608.5154939906812</v>
+        <v>1015.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2.080610643627002</v>
+        <v>4.34</v>
       </c>
       <c r="F10" t="n">
-        <v>8260</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>1092</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5266807513020847</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Sud</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0.992940479592466</v>
+        <v>18.75</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sud e Isole</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>6.013267433113356</v>
+        <v>1044</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>2340</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7648973453061324</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1637</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>99.89400000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="W10" t="n">
+        <v>90</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG-SIM-010</t>
+          <t>GIST-SIM-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -972,48 +1506,99 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="D11" t="n">
-        <v>944.9836530381996</v>
+        <v>815.1</v>
       </c>
       <c r="E11" t="n">
-        <v>2.000260188497658</v>
+        <v>5.13</v>
       </c>
       <c r="F11" t="n">
-        <v>8151</v>
+        <v>2.07</v>
       </c>
       <c r="G11" t="n">
-        <v>1081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4329311706285884</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9978902312289736</v>
+        <v>16.87</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>5.34666354248386</v>
+        <v>1230</v>
       </c>
       <c r="L11" t="n">
-        <v>118</v>
+        <v>1590</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7758438660624354</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>81</v>
+        <v>11.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1870</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>99.86499999999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="W11" t="n">
+        <v>46</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG-SIM-011</t>
+          <t>GIST-SIM-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1022,48 +1607,99 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D12" t="n">
-        <v>663.5143127742082</v>
+        <v>1229.4</v>
       </c>
       <c r="E12" t="n">
-        <v>2.126957706967172</v>
+        <v>5.37</v>
       </c>
       <c r="F12" t="n">
-        <v>7406</v>
+        <v>2.11</v>
       </c>
       <c r="G12" t="n">
-        <v>1290</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5424541179848884</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>25.92</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Nord</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>0.993871243898398</v>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>5.844902335044728</v>
+        <v>1043</v>
       </c>
       <c r="L12" t="n">
-        <v>117</v>
+        <v>2290</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6750620429180645</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>112</v>
+        <v>8.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1853</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>99.898</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>23</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="W12" t="n">
+        <v>162</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG-SIM-012</t>
+          <t>GIST-SIM-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1072,48 +1708,99 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D13" t="n">
-        <v>528.0050109951269</v>
+        <v>435.4</v>
       </c>
       <c r="E13" t="n">
-        <v>2.184827228030702</v>
+        <v>4.07</v>
       </c>
       <c r="F13" t="n">
-        <v>5818</v>
+        <v>2.44</v>
       </c>
       <c r="G13" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1524</v>
+      </c>
+      <c r="L13" t="n">
         <v>1070</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.4940601268892077</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Sud</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0.996436100875513</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.110541975696518</v>
-      </c>
-      <c r="L13" t="n">
-        <v>96</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.896691990046406</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>91</v>
+        <v>10.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1167</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>99.893</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="W13" t="n">
+        <v>37</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG-SIM-013</t>
+          <t>GIST-SIM-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1122,48 +1809,99 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="D14" t="n">
-        <v>1454.715065050311</v>
+        <v>2608.1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.774295053289598</v>
+        <v>7.39</v>
       </c>
       <c r="F14" t="n">
-        <v>10163</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2028</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.3452991550395876</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0.997072672064764</v>
+        <v>67.75</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>2.585309068738723</v>
+        <v>1616</v>
       </c>
       <c r="L14" t="n">
-        <v>135</v>
+        <v>3530</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8305867800511693</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>46</v>
+        <v>8.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3043</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>99.874</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>30</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="W14" t="n">
+        <v>28</v>
+      </c>
+      <c r="X14" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG-SIM-014</t>
+          <t>GIST-SIM-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1172,48 +1910,99 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>466</v>
+        <v>253</v>
       </c>
       <c r="D15" t="n">
-        <v>2156.282125791324</v>
+        <v>1508.4</v>
       </c>
       <c r="E15" t="n">
-        <v>2.679013581679296</v>
+        <v>5.96</v>
       </c>
       <c r="F15" t="n">
-        <v>25124</v>
+        <v>2.98</v>
       </c>
       <c r="G15" t="n">
-        <v>3222</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.3349909854191872</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Sud</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0.99257894084295</v>
+        <v>44.93</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sud e Isole</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>3.618978491895986</v>
+        <v>2088</v>
       </c>
       <c r="L15" t="n">
-        <v>243</v>
+        <v>2530</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8199301377214137</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>47</v>
+        <v>12.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3203</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="W15" t="n">
+        <v>72</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG-SIM-015</t>
+          <t>GIST-SIM-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1222,42 +2011,93 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D16" t="n">
-        <v>2446.435346497844</v>
+        <v>2666.5</v>
       </c>
       <c r="E16" t="n">
-        <v>2.927977181966804</v>
+        <v>6.49</v>
       </c>
       <c r="F16" t="n">
-        <v>22865</v>
+        <v>2.95</v>
       </c>
       <c r="G16" t="n">
-        <v>3611</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4284063292308575</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Nord</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9965861449465974</v>
+        <v>78.63</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sud e Isole</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{'size_distribution': 'Federdistribuzione (2023)', 'geographic_distribution': 'ISTAT (2023)', 'revenue_data': 'Ufficio Studi Mediobanca (2023)', 'it_budget': 'Osservatorio Innovazione Digitale nel Retail (2023)'}</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>2.785648581973632</v>
+        <v>2017</v>
       </c>
       <c r="L16" t="n">
-        <v>208</v>
+        <v>4110</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7904348251398675</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>69</v>
+        <v>15.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6409</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>SYNTHETIC</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +2159,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG-SIM-001</t>
+          <t>GIST-SIM-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1328,13 +2168,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9879780742205108</v>
+        <v>99.893</v>
       </c>
       <c r="D2" t="n">
-        <v>6.323831313748018</v>
+        <v>7.382000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9918739075538441</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.2705833333333333</v>
@@ -1346,7 +2186,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG-SIM-002</t>
+          <t>GIST-SIM-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1355,13 +2195,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9936328901619026</v>
+        <v>99.892</v>
       </c>
       <c r="D3" t="n">
-        <v>3.830991589743352</v>
+        <v>4.528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.997528723495236</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.2705833333333333</v>
@@ -1373,7 +2213,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG-SIM-003</t>
+          <t>GIST-SIM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1382,13 +2222,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9914132017072826</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>6.214602275839057</v>
+        <v>5.11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.995309035040616</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.2705833333333333</v>
@@ -1400,7 +2240,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG-SIM-004</t>
+          <t>GIST-SIM-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1409,13 +2249,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9936450898242064</v>
+        <v>99.869</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4358353740848</v>
+        <v>4.164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975409231575397</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.2705833333333333</v>
@@ -1427,7 +2267,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG-SIM-005</t>
+          <t>GIST-SIM-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1436,13 +2276,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9899818293142698</v>
+        <v>99.89700000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>4.757355966607786</v>
+        <v>5.496</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9938776626476032</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0.2705833333333333</v>
@@ -1454,7 +2294,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG-SIM-006</t>
+          <t>GIST-SIM-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1463,13 +2303,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.994061999044992</v>
+        <v>99.896</v>
       </c>
       <c r="D7" t="n">
-        <v>4.289875085905107</v>
+        <v>5.086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9979578323783254</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.2705833333333333</v>
@@ -1481,7 +2321,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG-SIM-007</t>
+          <t>GIST-SIM-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1490,13 +2330,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.990851689426112</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>21.99636108811252</v>
+        <v>11.2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9947475227594453</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.2705833333333333</v>
@@ -1508,7 +2348,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG-SIM-008</t>
+          <t>GIST-SIM-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1517,13 +2357,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9911624990828172</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>19.22018954895273</v>
+        <v>18.376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9950583324161505</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.2705833333333333</v>
@@ -1535,7 +2375,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG-SIM-009</t>
+          <t>GIST-SIM-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1544,13 +2384,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.992940479592466</v>
+        <v>99.89400000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>12.17030987981362</v>
+        <v>20.316</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9968363129257994</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.2705833333333333</v>
@@ -1562,7 +2402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG-SIM-010</t>
+          <t>GIST-SIM-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1571,10 +2411,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9978902312289736</v>
+        <v>99.86499999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>18.89967306076399</v>
+        <v>16.302</v>
       </c>
       <c r="E11" t="n">
         <v>0.9999000000000001</v>
@@ -1589,7 +2429,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG-SIM-011</t>
+          <t>GIST-SIM-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1598,13 +2438,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.993871243898398</v>
+        <v>99.898</v>
       </c>
       <c r="D12" t="n">
-        <v>13.27028625548416</v>
+        <v>24.588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9977670772317313</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>0.2705833333333333</v>
@@ -1616,7 +2456,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG-SIM-012</t>
+          <t>GIST-SIM-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1625,13 +2465,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.996436100875513</v>
+        <v>99.893</v>
       </c>
       <c r="D13" t="n">
-        <v>10.56010021990254</v>
+        <v>8.708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99973842251406</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.2705833333333333</v>
@@ -1643,7 +2483,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG-SIM-013</t>
+          <t>GIST-SIM-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1652,13 +2492,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.997072672064764</v>
+        <v>99.874</v>
       </c>
       <c r="D14" t="n">
-        <v>29.09430130100622</v>
+        <v>52.162</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998871120107942</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.2705833333333333</v>
@@ -1670,7 +2510,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG-SIM-014</t>
+          <t>GIST-SIM-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1679,13 +2519,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.99257894084295</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>43.12564251582648</v>
+        <v>30.168</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9964747741762833</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.2705833333333333</v>
@@ -1697,7 +2537,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG-SIM-015</t>
+          <t>GIST-SIM-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1706,13 +2546,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9965861449465974</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>48.92870692995689</v>
+        <v>53.33</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997884372044216</v>
+        <v>0.9999000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.2705833333333333</v>
@@ -1790,7 +2630,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG-SIM-001</t>
+          <t>GIST-SIM-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1799,31 +2639,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29.60084093892148</v>
+        <v>23.5</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>15.92578190086755</v>
+        <v>15.71786474563609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4619821128146702</v>
+        <v>0.3311546916750601</v>
       </c>
       <c r="G2" t="n">
-        <v>40.98192236138932</v>
+        <v>37.91744419726059</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG-SIM-002</t>
+          <t>GIST-SIM-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1832,31 +2672,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.51671900853704</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>22.29077257256325</v>
+        <v>27.38196710749695</v>
       </c>
       <c r="F3" t="n">
-        <v>0.334935720680608</v>
+        <v>0.3582351459180402</v>
       </c>
       <c r="G3" t="n">
-        <v>31.51715542665491</v>
+        <v>36.40862174604285</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG-SIM-003</t>
+          <t>GIST-SIM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1865,31 +2705,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30.70109248678504</v>
+        <v>32.16666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>21.68272749192816</v>
+        <v>20.9031400175492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2937473641610227</v>
+        <v>0.3501614502316312</v>
       </c>
       <c r="G4" t="n">
-        <v>43.27189279348433</v>
+        <v>41.77767921582807</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG-SIM-004</t>
+          <t>GIST-SIM-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1898,31 +2738,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36.64093024449215</v>
+        <v>55.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>21.65680938279959</v>
+        <v>37.29085120209161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4089448810854076</v>
+        <v>0.3293012373724528</v>
       </c>
       <c r="G5" t="n">
-        <v>47.10342646547566</v>
+        <v>34.35713082258677</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG-SIM-005</t>
+          <t>GIST-SIM-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1931,31 +2771,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.73339048680674</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>22.84114593057511</v>
+        <v>21.35688761925478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3781911871495012</v>
+        <v>0.4894767899779733</v>
       </c>
       <c r="G6" t="n">
-        <v>38.68806529267013</v>
+        <v>38.27255666757148</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG-SIM-006</t>
+          <t>GIST-SIM-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1964,31 +2804,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34.1960876161132</v>
+        <v>38.13333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>20.60511490123932</v>
+        <v>23.89030320381933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3974423292935362</v>
+        <v>0.373506034864878</v>
       </c>
       <c r="G7" t="n">
-        <v>30.07293960604264</v>
+        <v>46.83317033223864</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG-SIM-007</t>
+          <t>GIST-SIM-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1997,31 +2837,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.66881420456023</v>
+        <v>25.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>15.86862949936245</v>
+        <v>14.5956386478601</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3567331867768091</v>
+        <v>0.4253685571708623</v>
       </c>
       <c r="G8" t="n">
-        <v>26.1086175534642</v>
+        <v>33.28800653366402</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG-SIM-008</t>
+          <t>GIST-SIM-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2030,31 +2870,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.94629164348959</v>
+        <v>27.33333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>15.07133437412767</v>
+        <v>16.72046155940931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3706192758983958</v>
+        <v>0.3882757966069766</v>
       </c>
       <c r="G9" t="n">
-        <v>28.45930642231964</v>
+        <v>45.70560803538858</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG-SIM-009</t>
+          <t>GIST-SIM-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2063,31 +2903,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.51026546938677</v>
+        <v>16.13333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>12.99209955091666</v>
+        <v>10.43235974503798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4473860974545798</v>
+        <v>0.3533661315059099</v>
       </c>
       <c r="G10" t="n">
-        <v>21.5468445640075</v>
+        <v>34.42918961123242</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG-SIM-010</t>
+          <t>GIST-SIM-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2096,31 +2936,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.41561339375646</v>
+        <v>33.13333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0748351228919</v>
+        <v>21.84717876754115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3274850499031728</v>
+        <v>0.3406284074182753</v>
       </c>
       <c r="G11" t="n">
-        <v>36.74645962107029</v>
+        <v>33.25532954339799</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG-SIM-011</t>
+          <t>GIST-SIM-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2129,31 +2969,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.49379570819355</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>19.47170568150442</v>
+        <v>33.63265564322702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4007561980026085</v>
+        <v>0.4008434267833667</v>
       </c>
       <c r="G12" t="n">
-        <v>45.47063191114925</v>
+        <v>30.17744637721387</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG-SIM-012</t>
+          <t>GIST-SIM-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2162,31 +3002,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.3308009953594</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>6.575433548270357</v>
+        <v>11.1854645508131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3635117401618668</v>
+        <v>0.3876570501379691</v>
       </c>
       <c r="G13" t="n">
-        <v>31.4993774563564</v>
+        <v>36.24633499394182</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG-SIM-013</t>
+          <t>GIST-SIM-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2195,31 +3035,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.94132199488307</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>9.456695633414551</v>
+        <v>19.20616740384832</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4417970665883786</v>
+        <v>0.4367692843446241</v>
       </c>
       <c r="G14" t="n">
-        <v>38.01342534432547</v>
+        <v>26.28705333624205</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG-SIM-014</t>
+          <t>GIST-SIM-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2228,31 +3068,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.00698622785863</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8.647314664847359</v>
+        <v>11.10160497247758</v>
       </c>
       <c r="F15" t="n">
-        <v>0.519780014521859</v>
+        <v>0.3774800950012569</v>
       </c>
       <c r="G15" t="n">
-        <v>21.98870801475282</v>
+        <v>27.34589832007183</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG-SIM-015</t>
+          <t>GIST-SIM-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2261,25 +3101,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.95651748601325</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>12.19393585955039</v>
+        <v>12.15802982333306</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4181315732593053</v>
+        <v>0.498293129711153</v>
       </c>
       <c r="G16" t="n">
-        <v>28.98445582803187</v>
+        <v>27.14380516193319</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +3186,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG-SIM-001</t>
+          <t>GIST-SIM-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2355,28 +3195,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>948.5746970622026</v>
+        <v>1107.3</v>
       </c>
       <c r="D2" t="n">
-        <v>5032.876152357621</v>
+        <v>4244.65</v>
       </c>
       <c r="E2" t="n">
-        <v>594.2354275285475</v>
+        <v>678.2070646214477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3735491476117452</v>
+        <v>0.3875128107816783</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1045757728431192</v>
+        <v>0.09564078228841366</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG-SIM-002</t>
+          <t>GIST-SIM-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2385,28 +3225,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>574.6487384615027</v>
+        <v>679.2</v>
       </c>
       <c r="D3" t="n">
-        <v>3047.386172351455</v>
+        <v>2535.680000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>365.0758583805403</v>
+        <v>411.1847023681291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.364697363892329</v>
+        <v>0.3946043840280785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09182040655284104</v>
+        <v>0.1013019263998963</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG-SIM-003</t>
+          <t>GIST-SIM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2415,19 +3255,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>932.1903413758585</v>
+        <v>766.5000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>5255.163997217003</v>
+        <v>2836.05</v>
       </c>
       <c r="E4" t="n">
-        <v>559.314204825515</v>
+        <v>463.6655291466582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.3950873722809418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0959886011348377</v>
+        <v>0.08986534286962305</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -2436,7 +3276,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG-SIM-004</t>
+          <t>GIST-SIM-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2445,19 +3285,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>515.37530611272</v>
+        <v>624.5999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>2954.94940755914</v>
+        <v>3643.5</v>
       </c>
       <c r="E5" t="n">
-        <v>316.7489459540758</v>
+        <v>388.8715833931188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3854013915738558</v>
+        <v>0.3774070070555253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09640926305987828</v>
+        <v>0.08939863534439076</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -2466,7 +3306,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG-SIM-005</t>
+          <t>GIST-SIM-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2475,19 +3315,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>713.603394991168</v>
+        <v>824.4</v>
       </c>
       <c r="D6" t="n">
-        <v>4685.399698773863</v>
+        <v>4094.52</v>
       </c>
       <c r="E6" t="n">
-        <v>428.1620369947008</v>
+        <v>516.7580460289415</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.373170735044952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09688617269214043</v>
+        <v>0.09311662650862473</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -2496,7 +3336,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG-SIM-006</t>
+          <t>GIST-SIM-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2505,19 +3345,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>643.4812628857661</v>
+        <v>762.9</v>
       </c>
       <c r="D7" t="n">
-        <v>4077.737524860095</v>
+        <v>3789.070000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>386.7477268784873</v>
+        <v>457.74</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3989759311031492</v>
+        <v>0.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09933522086064758</v>
+        <v>0.09681552640436673</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -2526,7 +3366,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG-SIM-007</t>
+          <t>GIST-SIM-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2535,19 +3375,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2749.545136014065</v>
+        <v>1400</v>
       </c>
       <c r="D8" t="n">
-        <v>24467.9309180224</v>
+        <v>13160</v>
       </c>
       <c r="E8" t="n">
-        <v>1649.727081608439</v>
+        <v>933.007384052504</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>0.3335661542482115</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09826570374688109</v>
+        <v>0.09611329031051355</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -2556,7 +3396,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG-SIM-008</t>
+          <t>GIST-SIM-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2565,19 +3405,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2402.523693619091</v>
+        <v>2297</v>
       </c>
       <c r="D9" t="n">
-        <v>21731.9455649983</v>
+        <v>19570.44</v>
       </c>
       <c r="E9" t="n">
-        <v>1512.212983121265</v>
+        <v>1378.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3705731239456324</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09884939485648138</v>
+        <v>0.09332168096187606</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2586,7 +3426,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG-SIM-009</t>
+          <t>GIST-SIM-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2595,28 +3435,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1521.288734976703</v>
+        <v>2539.5</v>
       </c>
       <c r="D10" t="n">
-        <v>12660.83813608955</v>
+        <v>18792.3</v>
       </c>
       <c r="E10" t="n">
-        <v>978.3401676371292</v>
+        <v>1542.144836777593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3569004061203993</v>
+        <v>0.3927368234780101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09317309615479649</v>
+        <v>0.1003762518792542</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG-SIM-010</t>
+          <t>GIST-SIM-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2625,28 +3465,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2362.459132595499</v>
+        <v>2037.75</v>
       </c>
       <c r="D11" t="n">
-        <v>18902.13179953395</v>
+        <v>16872.57</v>
       </c>
       <c r="E11" t="n">
-        <v>1417.475479557299</v>
+        <v>1222.65</v>
       </c>
       <c r="F11" t="n">
         <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1059960187282507</v>
+        <v>0.0945234647509009</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG-SIM-011</t>
+          <t>GIST-SIM-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2655,28 +3495,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1658.785781935521</v>
+        <v>3073.5</v>
       </c>
       <c r="D12" t="n">
-        <v>14112.66881238129</v>
+        <v>25940.34</v>
       </c>
       <c r="E12" t="n">
-        <v>995.2714691613123</v>
+        <v>1844.1</v>
       </c>
       <c r="F12" t="n">
         <v>0.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1038133800223583</v>
+        <v>0.09468287318549082</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG-SIM-012</t>
+          <t>GIST-SIM-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2685,19 +3525,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1320.012527487817</v>
+        <v>1088.5</v>
       </c>
       <c r="D13" t="n">
-        <v>11535.99724558804</v>
+        <v>10623.76</v>
       </c>
       <c r="E13" t="n">
-        <v>815.8257338477149</v>
+        <v>683.9426976753067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3819560671894878</v>
+        <v>0.3716649539041738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09946308456652389</v>
+        <v>0.09881711756592555</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2706,7 +3546,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG-SIM-013</t>
+          <t>GIST-SIM-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2715,19 +3555,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2909.430130100622</v>
+        <v>5216.2</v>
       </c>
       <c r="D14" t="n">
-        <v>40358.08808914933</v>
+        <v>67810.60000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>1756.355587968356</v>
+        <v>3295.021638575844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3963231597152626</v>
+        <v>0.3683099500448901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1013972040638219</v>
+        <v>0.1033382001960881</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -2736,7 +3576,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG-SIM-014</t>
+          <t>GIST-SIM-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2745,28 +3585,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4312.564251582648</v>
+        <v>3016.8</v>
       </c>
       <c r="D15" t="n">
-        <v>57767.0910092726</v>
+        <v>44950.32000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>2687.505729973082</v>
+        <v>1957.011559551742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3768195502277312</v>
+        <v>0.3512955583559591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09736209404100063</v>
+        <v>0.1020346616999637</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG-SIM-015</t>
+          <t>GIST-SIM-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2775,19 +3615,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4892.870692995689</v>
+        <v>5333</v>
       </c>
       <c r="D16" t="n">
-        <v>71631.0687170274</v>
+        <v>78661.75</v>
       </c>
       <c r="E16" t="n">
-        <v>3078.597874567036</v>
+        <v>3306.117315533249</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3707992571775596</v>
+        <v>0.3800642573536004</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08774691978903397</v>
+        <v>0.09264070293379387</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2857,7 +3697,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG-SIM-001</t>
+          <t>GIST-SIM-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2866,30 +3706,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6673807228518546</v>
+        <v>0.6660419795717792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5832847801708484</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6847928451258681</v>
+        <v>0.6324618766700241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6494196590446981</v>
+        <v>0.6550051243126713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7339009311426608</v>
+        <v>0.8665872149601291</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG-SIM-002</t>
+          <t>GIST-SIM-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2898,30 +3738,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7591156234265699</v>
+        <v>0.6734586832525201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8346099331216015</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6339742882722432</v>
+        <v>0.6432940583672161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6458789455569316</v>
+        <v>0.6578417536112314</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8429210389521733</v>
+        <v>0.8742106208970643</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG-SIM-003</t>
+          <t>GIST-SIM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2930,30 +3770,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6421312267484744</v>
+        <v>0.6546299461435635</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7359571129162654</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6174989456644091</v>
+        <v>0.6400645800926525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.66</v>
+        <v>0.6580349489123767</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7753417256487485</v>
+        <v>0.8684971511107228</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG-SIM-004</t>
+          <t>GIST-SIM-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2962,30 +3802,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6190522094777847</v>
+        <v>0.7379146058110574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8351521403350994</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6635779524341631</v>
+        <v>0.6317204949489812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6541605566295423</v>
+        <v>0.6509628028222101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8293434693692454</v>
+        <v>0.8804237835121398</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG-SIM-005</t>
+          <t>GIST-SIM-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2994,30 +3834,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7336033912708743</v>
+        <v>0.768160225321518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6723405621157001</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6512764748598004</v>
+        <v>0.6957907159911894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.66</v>
+        <v>0.6492682940179808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7791932549076914</v>
+        <v>0.9160226289114652</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG-SIM-006</t>
+          <t>GIST-SIM-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3026,19 +3866,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.717811810909462</v>
+        <v>0.6653568096343709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8536814390366831</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6589769317174146</v>
+        <v>0.6494024139459512</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6595903724412597</v>
+        <v>0.66</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8578968319509382</v>
+        <v>0.8758951443191685</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3049,7 +3889,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG-SIM-007</t>
+          <t>GIST-SIM-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3058,30 +3898,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6965505043668476</v>
+        <v>0.6410462569212578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7110010115309042</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6426932747107237</v>
+        <v>0.6701474228683449</v>
       </c>
       <c r="F8" t="n">
-        <v>0.66</v>
+        <v>0.6334264616992846</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7862230648894978</v>
+        <v>0.8715076496105647</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG-SIM-008</t>
+          <t>GIST-SIM-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3090,30 +3930,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6474076769236232</v>
+        <v>0.6574218131049495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7248147740511335</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6482477103593584</v>
+        <v>0.6553103186427907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.648229249578253</v>
+        <v>0.66</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7814863369014431</v>
+        <v>0.8768190996291551</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG-SIM-009</t>
+          <t>GIST-SIM-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3122,19 +3962,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7698487270358394</v>
+        <v>0.7019314429383762</v>
       </c>
       <c r="D10" t="n">
-        <v>0.803836130035531</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6789544389818319</v>
+        <v>0.641346452602364</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6427601624481597</v>
+        <v>0.6570947293912041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8512481312757746</v>
+        <v>0.8793245579548528</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3145,7 +3985,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG-SIM-010</t>
+          <t>GIST-SIM-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3154,19 +3994,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.693317937931125</v>
+        <v>0.7974400249198477</v>
       </c>
       <c r="D11" t="n">
         <v>0.9400000000000059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6309940199612691</v>
+        <v>0.6362513629673101</v>
       </c>
       <c r="F11" t="n">
         <v>0.66</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8734299312118364</v>
+        <v>0.8973202672544252</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3177,7 +4017,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG-SIM-011</t>
+          <t>GIST-SIM-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3186,30 +4026,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6582051999808332</v>
+        <v>0.756566759763621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8452034325213917</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6603024792010435</v>
+        <v>0.6603373707133466</v>
       </c>
       <c r="F12" t="n">
         <v>0.66</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8424864556736642</v>
+        <v>0.9006835338805893</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG-SIM-012</t>
+          <t>GIST-SIM-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3218,19 +4058,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7555690207767547</v>
+        <v>0.6298613470383564</v>
       </c>
       <c r="D13" t="n">
-        <v>0.932818778402666</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6454046960647467</v>
+        <v>0.6550628200551877</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6527824268757951</v>
+        <v>0.6486659815616695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8884035394349181</v>
+        <v>0.8667967967649282</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3241,7 +4081,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG-SIM-013</t>
+          <t>GIST-SIM-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3250,19 +4090,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6956454143140972</v>
+        <v>0.6383402888821432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.939427200479741</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6767188266353514</v>
+        <v>0.6747077137378497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.658529263886105</v>
+        <v>0.647323980017956</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8945954719017267</v>
+        <v>0.8772772532452253</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3273,7 +4113,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG-SIM-014</t>
+          <t>GIST-SIM-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3282,30 +4122,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6956363969955717</v>
+        <v>0.6920069872406902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7877677411681459</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7079120058087436</v>
+        <v>0.6509920380005028</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6507278200910925</v>
+        <v>0.6405182233423836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8441561295119021</v>
+        <v>0.8765315451037974</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Avanzato</t>
+          <t>Leader</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG-SIM-015</t>
+          <t>GIST-SIM-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3314,19 +4154,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.664540380832535</v>
+        <v>0.6346988942926337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9350416535298478</v>
+        <v>0.9400000000000059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6672526293037222</v>
+        <v>0.6993172518844613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6483197028710238</v>
+        <v>0.6520257029414402</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8784443963969628</v>
+        <v>0.8887836581664481</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
